--- a/Results/C vs Python performance results.xlsx
+++ b/Results/C vs Python performance results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\C-vs-Python-performance-test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B276FAC-F9DF-441A-82CE-FA63CF77D65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081EB92E-5CED-4872-9F33-4D1900FC1374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="600" windowWidth="21585" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Python</t>
   </si>
@@ -73,13 +73,22 @@
   <si>
     <t>Testing Function 3 (bubble_sort)</t>
   </si>
+  <si>
+    <t>Time [ms]</t>
+  </si>
+  <si>
+    <t>Memory [KB]</t>
+  </si>
+  <si>
+    <t>All test functions (custom average)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -140,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,12 +187,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,10 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,10 +241,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -221,16 +253,38 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,6 +303,6483 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>counting_letters - Time[ms]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.351</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3520000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-362E-4EC6-963A-73C617967252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-362E-4EC6-963A-73C617967252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>counting_letters - Memory[KB]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.863999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.672000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.863999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.863999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-362E-4EC6-963A-73C617967252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-362E-4EC6-963A-73C617967252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>matrix_multiplication - Time[ms]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>694.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.42100000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690.28530000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>678.29499999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>688.76499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>691.27099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673.63300000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>677.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675.60799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>673.83500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2503-4992-BBE7-FA17A094F7CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2987.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3001.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3003.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3001.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3027.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2984.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2986.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2990.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3011.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2503-4992-BBE7-FA17A094F7CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>matrix_multiplication- Memory[KB]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2596.864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2535.424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1331.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1540.096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1273.856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1724.4159999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1511.424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2142.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2326.5279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A008-4B39-8C8A-03B118412D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A008-4B39-8C8A-03B118412D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>bubble_sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>- Time[ms]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>131478.56599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131322.65599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131496.59400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131584.242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132305.08900000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131228.88380000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131410.36499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131154.96590000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132560.829</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135991.86300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9068-4F7C-ABD3-DA958B4B8BCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1418.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1308.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1259.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1376.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1370.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1252.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1262.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1249.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1364.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1429.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9068-4F7C-ABD3-DA958B4B8BCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>bubble_sort - Memory[KB]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="hr-HR" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>430.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>991.23199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>389.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>905.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>905.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>475.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>659.45600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB4A-4964-B5BE-B40477EAFBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$D$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB4A-4964-B5BE-B40477EAFBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="744442592"/>
+        <c:axId val="744439712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744442592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744439712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744439712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744442592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>42021</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafikon 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF673E2C-BA65-D41E-742C-59FC6A237F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>42021</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafikon 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ED33EF-0FE8-24E1-D83A-5FC9FE90D5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafikon 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB10F4EE-6DBD-4163-AC28-737AC1327D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafikon 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809C1522-BBF5-4154-8156-CEB25AF45527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafikon 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4850DB49-938A-45FF-A287-739BE98FE95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafikon 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA15808C-0579-43BB-A40C-75F6B137D613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,33 +7045,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:O33"/>
+  <dimension ref="C3:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="15" width="13.140625" customWidth="1"/>
+    <col min="19" max="21" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,55 +7080,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="S10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>8</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>9</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>10</v>
       </c>
       <c r="N11" s="4" t="s">
@@ -605,228 +7142,257 @@
       <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="S11" s="17"/>
+      <c r="T11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>1.3360000000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1.371</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>1.363</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1.373</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1.446</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>1.3480000000000001</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>1.3759999999999999</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>1.351</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>1.409</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>1.3520000000000001</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <f xml:space="preserve"> AVERAGE(D12:M12)</f>
         <v>1.3725000000000001</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <f>MEDIAN(D12:M12)</f>
         <v>1.367</v>
       </c>
+      <c r="S12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f xml:space="preserve"> AVERAGE(N13,O13,N22,O22,N31,O31)</f>
+        <v>787.55599999999993</v>
+      </c>
+      <c r="U12" s="21">
+        <f>AVERAGE(N12,O12,N21,O21,N30,O30)</f>
+        <v>44150.528033333336</v>
+      </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>40.96</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>36.863999999999997</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>20.48</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>40.96</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>40.96</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>8.1920000000000002</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>28.672000000000001</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>8.1920000000000002</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>36.863999999999997</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>36.863999999999997</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <f t="shared" ref="N13:N15" si="0" xml:space="preserve"> AVERAGE(D13:M13)</f>
         <v>29.900799999999997</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f>MEDIAN(D13:M13)</f>
         <v>36.863999999999997</v>
       </c>
+      <c r="S13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="22">
+        <f>AVERAGE(N15,O15,N24,O24,N33,O33)</f>
+        <v>421.75</v>
+      </c>
+      <c r="U13" s="23">
+        <f>AVERAGE(N14,O14,N23,O23,N32,O32)</f>
+        <v>1444.4668333333332</v>
+      </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.21</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>0.21</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.21</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>0.21</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0.22</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>0.21</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>0.2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>0.26</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>0.21</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>0.21</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f t="shared" si="0"/>
         <v>0.215</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <f>MEDIAN(D14:M14)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>102</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>102</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>102</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>102</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>102</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>102</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>102</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>102</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>102</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>102</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="15">
         <f>MEDIAN(D15:M15)</f>
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>3</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>5</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>6</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>7</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>8</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>9</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>10</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -837,226 +7403,226 @@
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>694.69299999999998</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>673.42100000000005</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>690.28530000000001</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>678.29499999999996</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>688.76499999999999</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>691.27099999999996</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>673.63300000000004</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>677.19200000000001</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>675.60799999999995</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>673.83500000000004</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <f xml:space="preserve"> AVERAGE(D21:M21)</f>
         <v>681.69983000000002</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <f>MEDIAN(D21:M21)</f>
         <v>677.74350000000004</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>2596.864</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>2535.424</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>1331.2</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>1540.096</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>1273.856</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>1724.4159999999999</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>1511.424</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>753.66399999999999</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>2142.2080000000001</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>2326.5279999999998</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <f t="shared" ref="N22:N24" si="1" xml:space="preserve"> AVERAGE(D22:M22)</f>
         <v>1773.568</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <f>MEDIAN(D22:M22)</f>
         <v>1632.2559999999999</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>2987.1</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>3001.46</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>3003.62</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>3001.94</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>3027.79</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>2984.89</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>2986.49</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>2990.45</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <v>3011.75</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <v>3000.29</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <f t="shared" si="1"/>
         <v>2999.5780000000004</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <f>MEDIAN(D23:M23)</f>
         <v>3000.875</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>880</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>880</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>880</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>880</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>880</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>880</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>880</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <v>880</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>880</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>880</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="15">
         <f>MEDIAN(D24:M24)</f>
         <v>880</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>4</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>5</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>6</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>7</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>8</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>9</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>10</v>
       </c>
       <c r="N29" s="4" t="s">
@@ -1067,183 +7633,185 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>131478.56599999999</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>131322.65599999999</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>131496.59400000001</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>131584.242</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>132305.08900000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>131228.88380000001</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>131410.36499999999</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>131154.96590000001</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>132560.829</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>135991.86300000001</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <f xml:space="preserve"> AVERAGE(D30:M30)</f>
         <v>132053.40536999999</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <f>MEDIAN(D30:M30)</f>
         <v>131487.58000000002</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>430.08</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>991.23199999999997</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>389.12</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>905.21600000000001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>471.04</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>905.21600000000001</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>1024</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>475.13600000000002</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>496.61599999999999</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>659.45600000000002</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <f t="shared" ref="N31:N33" si="2" xml:space="preserve"> AVERAGE(D31:M31)</f>
         <v>674.71119999999996</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="13">
         <f>MEDIAN(D31:M31)</f>
         <v>578.03600000000006</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>1418.87</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>1308.53</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>1259.22</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>1376.55</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>1370.04</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>1252.2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>1262.8900000000001</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>1249.69</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>1364.91</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>1429.13</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="14">
         <f t="shared" si="2"/>
         <v>1329.203</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="14">
         <f>MEDIAN(D32:M32)</f>
         <v>1336.72</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>307</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>282</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>282</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>282</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>282</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>282</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>282</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="11">
         <v>282</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>282</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>282</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <f t="shared" si="2"/>
         <v>284.5</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f>MEDIAN(D33:M33)</f>
         <v>282</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C10:O10"/>
     <mergeCell ref="C19:O19"/>
     <mergeCell ref="C28:O28"/>
+    <mergeCell ref="S10:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/C vs Python performance results.xlsx
+++ b/Results/C vs Python performance results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\C-vs-Python-performance-test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\C-vs-Python-performance-test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081EB92E-5CED-4872-9F33-4D1900FC1374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9950C-64FE-42AA-B117-172F74A131FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,13 +72,13 @@
     <t>Testing Function 3 (bubble_sort)</t>
   </si>
   <si>
-    <t>Time [ms]</t>
-  </si>
-  <si>
     <t>Memory [KB]</t>
   </si>
   <si>
     <t>All test functions (custom average)</t>
+  </si>
+  <si>
+    <t>Time [s]</t>
   </si>
 </sst>
 </file>
@@ -265,9 +263,6 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,10 +282,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,7 +306,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -806,7 +804,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1310,7 +1308,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1808,7 +1806,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2312,7 +2310,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2818,7 +2816,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="hr-HR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3301,6 +3299,407 @@
           <a:ea typeface="+mn-ea"/>
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" baseline="0"/>
+              <a:t> and time usage across all test functions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$T$11:$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Memory [KB]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$T$12:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>787.55599999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.150528033333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADD5-4287-A487-271EE495AF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$T$11:$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Memory [KB]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$T$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>421.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4444668333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADD5-4287-A487-271EE495AF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="509915664"/>
+        <c:axId val="509914832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="509915664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509914832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="509914832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509915664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3553,6 +3952,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -6549,6 +6988,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6779,6 +7721,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128309</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4823D6-F741-41D3-95CB-E6D79C1D43E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7047,8 +8025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7081,26 +8059,26 @@
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="S10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="S10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
@@ -7142,12 +8120,12 @@
       <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="19" t="s">
+      <c r="S11" s="16"/>
+      <c r="T11" s="18" t="s">
         <v>12</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
@@ -7192,16 +8170,16 @@
         <f>MEDIAN(D12:M12)</f>
         <v>1.367</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="19">
         <f xml:space="preserve"> AVERAGE(N13,O13,N22,O22,N31,O31)</f>
         <v>787.55599999999993</v>
       </c>
-      <c r="U12" s="21">
-        <f>AVERAGE(N12,O12,N21,O21,N30,O30)</f>
-        <v>44150.528033333336</v>
+      <c r="U12" s="20">
+        <f>AVERAGE(N12,O12,N21,O21,N30,O30)/1000</f>
+        <v>44.150528033333337</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
@@ -7246,16 +8224,16 @@
         <f>MEDIAN(D13:M13)</f>
         <v>36.863999999999997</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="21">
         <f>AVERAGE(N15,O15,N24,O24,N33,O33)</f>
         <v>421.75</v>
       </c>
-      <c r="U13" s="23">
-        <f>AVERAGE(N14,O14,N23,O23,N32,O32)</f>
-        <v>1444.4668333333332</v>
+      <c r="U13" s="22">
+        <f>AVERAGE(N14,O14,N23,O23,N32,O32)/1000</f>
+        <v>1.4444668333333333</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
@@ -7345,21 +8323,21 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
@@ -7575,21 +8553,21 @@
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">

--- a/Results/C vs Python performance results.xlsx
+++ b/Results/C vs Python performance results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\C-vs-Python-performance-test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FESB files\6. Semestar\POSL INF\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9950C-64FE-42AA-B117-172F74A131FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3E897-F4C1-4BEB-A84B-92F27D2FFBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -287,8 +287,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +306,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -707,7 +707,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -746,7 +746,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -804,7 +804,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1211,7 +1211,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1250,7 +1250,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1308,7 +1308,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1709,7 +1709,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1748,7 +1748,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1806,7 +1806,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2213,7 +2213,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2252,7 +2252,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2310,7 +2310,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2758,7 +2758,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2816,7 +2816,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2906,7 +2906,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3014,7 +3017,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3256,7 +3262,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3314,7 +3320,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hr-HR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3675,6 +3681,627 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1991464497555642"/>
+          <c:y val="0.18123609208556582"/>
+          <c:w val="0.7601078278086677"/>
+          <c:h val="0.71599398118445823"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory [KB]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-75AB-4316-BC9B-46B4B21DBFBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$S$12:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$T$12:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>787.55599999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75AB-4316-BC9B-46B4B21DBFBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1185352351"/>
+        <c:axId val="1185343711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1185352351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185343711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1185343711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185352351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hr-HR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2031597465705525"/>
+          <c:y val="0.17844102996514222"/>
+          <c:w val="0.75269329620396208"/>
+          <c:h val="0.70718387759118873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C242-46A1-82A4-5F5DC1F20688}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$S$12:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$U$12:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44.150528033333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4444668333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C242-46A1-82A4-5F5DC1F20688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1351818095"/>
+        <c:axId val="1351825295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1351818095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351825295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1351825295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351818095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3992,6 +4619,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -6993,6 +7700,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7505,8 +9218,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>42021</xdr:rowOff>
     </xdr:to>
@@ -7541,8 +9254,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>253308</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>42021</xdr:rowOff>
     </xdr:to>
@@ -7577,8 +9290,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244779</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
@@ -7615,8 +9328,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262765</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
@@ -7653,8 +9366,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244779</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
@@ -7691,8 +9404,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262765</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
@@ -7726,7 +9439,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>229720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -7752,6 +9465,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>288473</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafikon 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9667BD04-4253-3523-1C06-B85777FA59DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>221027</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafikon 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DACD65A-06BA-E0DD-AE65-5468FA60EAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8025,8 +9810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
